--- a/Cleaned_Food_Diary.xlsx
+++ b/Cleaned_Food_Diary.xlsx
@@ -477,7 +477,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish fry  [with onion; Chilli, red, dry; UNKNOWN: soybean oil]</t>
+          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish fry  [with onion; UNKNOWN: chilli; UNKNOWN: soybean oil]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -525,14 +525,10 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish; Potato, Diamond, boiled* (without salt); Brinjal, purple, long, boiled* (without salt)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Pangas, without bones, raw {1.5};</t>
-        </is>
-      </c>
+          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish; UNKNOWN: potato; UNKNOWN: brinjal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>Apply nutrient retention factor to vitamins and minerals for Pangas: low fat fish, boiled, steamed, stewed. Assuming 150 g of fish and 200 grams of weight for potato and eggplant</t>
@@ -563,7 +559,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Biscuit, sweet*; Water, drinking</t>
+          <t>UNKNOWN: cake; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -585,7 +581,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); Egg, chicken, farmed, boiled* (without salt); Potato, Diamond, boiled* (without salt); Onion, raw; Tumeric, dried; Chilli, red, dry; Soybean oil</t>
+          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: egg with potato; UNKNOWN: onion; UNKNOWN: termaric; UNKNOWN: chilli; UNKNOWN: oil</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -607,7 +603,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); Egg, chicken, farmed, boiled* (without salt); Potato, Diamond, boiled* (without salt); Onion, raw; Tumeric, dried; Chilli, red, dry; Soybean oil</t>
+          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: egg with potato; UNKNOWN: onion; UNKNOWN: termaric; UNKNOWN: chilli; UNKNOWN: oil</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -641,7 +637,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bread, bun/roll; UNKNOWN: mixed vegetables</t>
+          <t>UNKNOWN: bread; UNKNOWN: mixed vegetables</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -667,7 +663,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Biscuit, sweet*; UNKNOWN: juice</t>
+          <t>UNKNOWN: cake; UNKNOWN: juice</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -689,7 +685,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: egg with onion; Soybean oil</t>
+          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: egg with onion; UNKNOWN: oil</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -740,11 +736,7 @@
           <t>Rice, BR-28, boiled* (without salt); UNKNOWN: egg  with onion and oil; UNKNOWN: pulse; UNKNOWN: winter melon with prawn</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Gourd, ash, raw {0.5}; Prawn, Hairy river prawn, raw {1.5}</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t xml:space="preserve">Need to figure out whether to use raw gourd and calculate nutrient retention factor, or use other type of veg in place? Need to calculate retention factor for cooked prawn. </t>
@@ -775,7 +767,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bread, bun/roll; UNKNOWN: egg fry; Water, drinking</t>
+          <t>UNKNOWN: bread; UNKNOWN: egg fry; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -793,7 +785,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Biscuit, sweet*</t>
+          <t>UNKNOWN: biscuit</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -815,10 +807,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: chicken; Water, drinking</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt); Chicken, raw; UNKNOWN: water</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Chicken, raw</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -837,10 +833,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>UNKNOWN: chicken; Banana, Sagar, ripe, raw; Biscuit, sweet*; UNKNOWN: juice</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>Chicken, raw; UNKNOWN: banana; UNKNOWN: biscuit; UNKNOWN: juice</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Chicken, raw</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -867,7 +867,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bread, bun/roll; UNKNOWN: potato curry; Water, drinking</t>
+          <t>UNKNOWN: bread; UNKNOWN: potato curry; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -885,7 +885,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Biscuit, sweet*; Water, drinking</t>
+          <t>UNKNOWN: cake; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -903,10 +903,14 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: chicken; Water, drinking</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt); Chicken, raw; UNKNOWN: water</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Chicken, raw</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -921,7 +925,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tea infusion (with sugar and milk powder, whole fat); Biscuit, sweet*</t>
+          <t>UNKNOWN: tea; UNKNOWN: biscuit</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -939,10 +943,14 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: chicken; UNKNOWN: pulse</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt); Chicken, raw; UNKNOWN: pulse</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Chicken, raw</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -965,7 +973,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bread, bun/roll; UNKNOWN: potato curry; Water, drinking</t>
+          <t>UNKNOWN: bread; UNKNOWN: potato curry; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -983,7 +991,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>UNKNOWN: pickle; Emblic, raw; Water, drinking</t>
+          <t>UNKNOWN: pickle; UNKNOWN: amla; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1041,7 +1049,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Emblic, raw; Banana, Sagar, ripe, raw; Water, drinking</t>
+          <t>UNKNOWN: amla; UNKNOWN: banana; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1059,7 +1067,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>UNKNOWN: pickle; Biscuit, sweet*; Emblic, raw; Orange, raw</t>
+          <t>UNKNOWN: pickle; UNKNOWN: biscuit; UNKNOWN: amla; UNKNOWN: orange</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1077,7 +1085,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish curry; Water, drinking</t>
+          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish curry; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1107,7 +1115,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bread, bun/roll; UNKNOWN: potato curry; Water, drinking</t>
+          <t>UNKNOWN: bread; UNKNOWN: potato curry; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1165,7 +1173,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Biscuit, sweet*; UNKNOWN: sugarcane; UNKNOWN: chips; Water, drinking</t>
+          <t>UNKNOWN: biscuit; UNKNOWN: sugarcane; UNKNOWN: chips; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1213,7 +1221,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Biscuit, sweet*; UNKNOWN: chips; Water, drinking</t>
+          <t>UNKNOWN: biscuit; UNKNOWN: chips; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1235,7 +1243,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: smashed potato; UNKNOWN: pulse; Water, drinking</t>
+          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: smashed potato; UNKNOWN: pulse; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1271,10 +1279,14 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bread, bun/roll; UNKNOWN: chicken</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>UNKNOWN: bread; Chicken, raw</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Chicken, raw</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1301,7 +1313,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bread, bun/roll; UNKNOWN: potato fry; Water, drinking</t>
+          <t>UNKNOWN: bread; UNKNOWN: potato fry; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1319,7 +1331,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>UNKNOWN: chips; Biscuit, sweet*; Banana, Sagar, ripe, raw; Papaya, unripe, boiled* (without salt); Water, drinking</t>
+          <t>UNKNOWN: chips; UNKNOWN: cake; UNKNOWN: banana; UNKNOWN: papaya; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1341,7 +1353,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish curry; UNKNOWN: potato fry; Water, drinking</t>
+          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish curry; UNKNOWN: potato fry; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1359,7 +1371,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>UNKNOWN: samosas; UNKNOWN: potato chops; UNKNOWN: chips; Biscuit, sweet*</t>
+          <t>UNKNOWN: samosas; UNKNOWN: potato chops; UNKNOWN: chips; UNKNOWN: biscuit</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1381,7 +1393,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>UNKNOWN: egg fry; UNKNOWN: small fish curry; UNKNOWN: pulse; Rice, BR-28, boiled* (without salt); Water, drinking</t>
+          <t>UNKNOWN: egg fry; UNKNOWN: small fish curry; UNKNOWN: pulse; Rice, BR-28, boiled* (without salt); UNKNOWN: water</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1411,7 +1423,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bread, bun/roll; UNKNOWN: egg fry; Water, drinking</t>
+          <t>UNKNOWN: bread; UNKNOWN: egg fry; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1433,7 +1445,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish curry; Water, drinking</t>
+          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish curry; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1455,7 +1467,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>UNKNOWN: juice; Biscuit, sweet*; Water, drinking</t>
+          <t>UNKNOWN: juice; UNKNOWN: biscuit; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1473,7 +1485,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Biscuit, sweet*</t>
+          <t>UNKNOWN: biscuit</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1517,7 +1529,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Biscuit, sweet*; Water, drinking</t>
+          <t>UNKNOWN: biscuit; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -1613,7 +1625,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); Spinach, boiled* (without salt); Water, drinking</t>
+          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: spinach; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -1635,7 +1647,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: chicken curry; Water, drinking</t>
+          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: chicken curry; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -1675,7 +1687,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hog plum, raw</t>
+          <t>UNKNOWN: plum</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -1697,7 +1709,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Rice, puffed, salted; Water, drinking</t>
+          <t>Rice, puffed, salted; UNKNOWN: water</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>

--- a/Cleaned_Food_Diary.xlsx
+++ b/Cleaned_Food_Diary.xlsx
@@ -477,7 +477,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish fry  [with onion; UNKNOWN: chilli; UNKNOWN: soybean oil]</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UNKNOWN: puri with onion</t>
+          <t>UNKNOWN; Onion, raw {1.8}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -525,10 +525,14 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish; UNKNOWN: potato; UNKNOWN: brinjal</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.97}; Pangas, without bones, raw {0.97}; Potato, Diamond, boiled* (without salt) {0.53}; Brinjal, purple, long, boiled* (without salt) {0.53}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pangas, without bones, raw; Pangas, without bones, raw</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Apply nutrient retention factor to vitamins and minerals for Pangas: low fat fish, boiled, steamed, stewed. Assuming 150 g of fish and 200 grams of weight for potato and eggplant</t>
@@ -559,7 +563,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>UNKNOWN: cake; UNKNOWN: water</t>
+          <t>Biscuit, sweet* {0.4}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -581,7 +585,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: egg with potato; UNKNOWN: onion; UNKNOWN: termaric; UNKNOWN: chilli; UNKNOWN: oil</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.26}; Potato, Diamond, boiled* (without salt) {0.07}; Onion, raw {0.07}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -603,7 +607,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: egg with potato; UNKNOWN: onion; UNKNOWN: termaric; UNKNOWN: chilli; UNKNOWN: oil</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {1.95}; Potato, Diamond, boiled* (without salt) {0.53}; Onion, raw {0.53}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -637,7 +641,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UNKNOWN: bread; UNKNOWN: mixed vegetables</t>
+          <t>UNKNOWN; UNKNOWN; UNKNOWN; Papaya, unripe, boiled* (without salt) {0.2}; UNKNOWN; Soybean oil {0.15}; Onion, raw {0.2}; Garlic, raw {0.2}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -663,7 +667,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>UNKNOWN: cake; UNKNOWN: juice</t>
+          <t>Biscuit, sweet* {0.75}; Orange juice, raw (unsweetened) {2.0}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -685,7 +689,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: egg with onion; UNKNOWN: oil</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.26}; Onion, raw {0.14}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -707,7 +711,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>UNKNOWN: sugarcane</t>
+          <t>Jaggery, sugarcane, solid {3.0}</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -733,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: egg  with onion and oil; UNKNOWN: pulse; UNKNOWN: winter melon with prawn</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.5}; Onion, raw {0.3}; Soybean oil {0.15}; UNKNOWN; Watermelon, ripe, raw {0.3}; UNKNOWN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -767,7 +771,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UNKNOWN: bread; UNKNOWN: egg fry; UNKNOWN: water</t>
+          <t>Bread, bun/roll {1.0}; UNKNOWN; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -785,7 +789,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>UNKNOWN: biscuit</t>
+          <t>Biscuit, sweet* {1.0}</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -807,12 +811,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); Chicken, raw; UNKNOWN: water</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {0.39}; Potato, Diamond, boiled* (without salt) {0.21}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chicken, raw</t>
+          <t>Chicken leg, without skin, raw</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -833,12 +837,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chicken, raw; UNKNOWN: banana; UNKNOWN: biscuit; UNKNOWN: juice</t>
+          <t>Chicken leg, without skin, raw {0.39}; Potato, Diamond, boiled* (without salt) {0.21}; Banana, Sagar, ripe, raw {0.5}; Biscuit, sweet* {0.5}; Orange juice, raw (unsweetened) {3.0}</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chicken, raw</t>
+          <t>Chicken leg, without skin, raw</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -867,7 +871,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>UNKNOWN: bread; UNKNOWN: potato curry; UNKNOWN: water</t>
+          <t>Bread, bun/roll {1.0}; UNKNOWN; Chilli, red, dry {0.1}; Soybean oil {0.15}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -885,7 +889,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>UNKNOWN: cake; UNKNOWN: water</t>
+          <t>Biscuit, sweet* {0.5}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -903,12 +907,12 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); Chicken, raw; UNKNOWN: water</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {4.0}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Chicken, raw</t>
+          <t>Chicken leg, without skin, raw</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -925,7 +929,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>UNKNOWN: tea; UNKNOWN: biscuit</t>
+          <t>Tea infusion (with sugar and milk powder, whole fat) {2.0}; Biscuit, sweet* {1.0}</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -943,12 +947,12 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); Chicken, raw; UNKNOWN: pulse</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {1.95}; Potato, Diamond, boiled* (without salt) {1.05}; UNKNOWN; Chilli, red, dry {0.1}; UNKNOWN</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Chicken, raw</t>
+          <t>Chicken leg, without skin, raw</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -973,7 +977,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>UNKNOWN: bread; UNKNOWN: potato curry; UNKNOWN: water</t>
+          <t>Bread, bun/roll {1.0}; UNKNOWN; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -991,7 +995,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>UNKNOWN: pickle; UNKNOWN: amla; UNKNOWN: water</t>
+          <t>UNKNOWN; Emblic, raw {0.5}; Water, drinking {1.5}</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1013,10 +1017,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.39}; Potato, Diamond, boiled* (without salt) {0.05}; Onion, raw {0.05}; Chilli, red, dry {0.1}; Soybean, dried, raw {0.05}; Soybean oil {0.15}; Cauliflower, boiled* (without salt) {0.05}</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pangas, without bones, raw</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1031,7 +1039,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>UNKNOWN: chips; UNKNOWN: juice</t>
+          <t>UNKNOWN; Orange juice, raw (unsweetened) {0.75}</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1049,7 +1057,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>UNKNOWN: amla; UNKNOWN: banana; UNKNOWN: water</t>
+          <t>Emblic, raw {0.5}; Banana, Sagar, ripe, raw {0.5}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1067,7 +1075,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>UNKNOWN: pickle; UNKNOWN: biscuit; UNKNOWN: amla; UNKNOWN: orange</t>
+          <t>UNKNOWN; Biscuit, sweet* {2.0}; Emblic, raw {0.5}; Orange, raw {1.0}</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1085,7 +1093,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish curry; UNKNOWN: water</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1115,7 +1123,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>UNKNOWN: bread; UNKNOWN: potato curry; UNKNOWN: water</t>
+          <t>Bread, bun/roll {1.0}; UNKNOWN; Soybean oil {0.15}; UNKNOWN; Coriander leaves, raw {0.1}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1137,10 +1145,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.26}; Amaranth, leaves, red, boiled* (without salt) {0.14}; Coriander leaves, raw {0.1}</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pangas, without bones, raw</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1155,7 +1167,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>UNKNOWN: sugarcane</t>
+          <t>Jaggery, sugarcane, solid {0.5}</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1173,7 +1185,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>UNKNOWN: biscuit; UNKNOWN: sugarcane; UNKNOWN: chips; UNKNOWN: water</t>
+          <t>Biscuit, sweet* {1.0}; Jaggery, sugarcane, solid {0.5}; UNKNOWN; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1203,7 +1215,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: smashed potato; UNKNOWN: pulse; UNKNOWN: juice</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Onion, raw {1.5}; Soybean oil {0.15}; UNKNOWN; Chilli, red, dry {0.1}; Onion, raw {1.5}; UNKNOWN; Orange juice, raw (unsweetened) {5.0}</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1221,7 +1233,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>UNKNOWN: biscuit; UNKNOWN: chips; UNKNOWN: water</t>
+          <t>Biscuit, sweet* {0.75}; UNKNOWN; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1243,7 +1255,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: smashed potato; UNKNOWN: pulse; UNKNOWN: water</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Onion, raw {0.3}; Soybean oil {0.15}; UNKNOWN; Chilli, red, dry {0.1}; Onion, raw {0.3}; UNKNOWN; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1261,7 +1273,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>UNKNOWN: milk</t>
+          <t>Milk, cow, whole fat (pasteurized, UTH) {1.5}; Sugar, white {1.5}</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1279,12 +1291,12 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>UNKNOWN: bread; Chicken, raw</t>
+          <t>Bread, bun/roll {1.0}; Chicken leg, without skin, raw {1.0}</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Chicken, raw</t>
+          <t>Chicken leg, without skin, raw</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -1313,7 +1325,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>UNKNOWN: bread; UNKNOWN: potato fry; UNKNOWN: water</t>
+          <t>Bread, bun/roll {1.0}; UNKNOWN; Onion, raw {0.6}; Soybean oil {0.15}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1331,7 +1343,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>UNKNOWN: chips; UNKNOWN: cake; UNKNOWN: banana; UNKNOWN: papaya; UNKNOWN: water</t>
+          <t>UNKNOWN; Biscuit, sweet* {0.5}; Banana, Sagar, ripe, raw {0.5}; Papaya, unripe, boiled* (without salt) {0.5}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1353,7 +1365,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish curry; UNKNOWN: potato fry; UNKNOWN: water</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Tomato, red, ripe, boiled* (without salt) {0.4}; Onion, raw {0.4}; Soybean oil {0.15}; UNKNOWN; Onion, raw {0.4}; Soybean oil {0.15}; UNKNOWN; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1371,7 +1383,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>UNKNOWN: samosas; UNKNOWN: potato chops; UNKNOWN: chips; UNKNOWN: biscuit</t>
+          <t>UNKNOWN; UNKNOWN; UNKNOWN; Biscuit, sweet* {0.75}</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1393,7 +1405,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>UNKNOWN: egg fry; UNKNOWN: small fish curry; UNKNOWN: pulse; Rice, BR-28, boiled* (without salt); UNKNOWN: water</t>
+          <t>UNKNOWN; Onion, raw {0.2}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; UNKNOWN; Soybean oil {0.15}; Onion, raw {0.2}; Tomato, red, ripe, boiled* (without salt) {0.2}; UNKNOWN; Coriander leaves, raw {0.1}; Garlic, raw {0.2}; Soybean oil {0.15}; Rice, BR-28, boiled* (without salt) {1.5}; Water, drinking {1.5}</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1423,7 +1435,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>UNKNOWN: bread; UNKNOWN: egg fry; UNKNOWN: water</t>
+          <t>Bread, bun/roll {1.0}; UNKNOWN; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1445,7 +1457,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish curry; UNKNOWN: water</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Onion, raw {1.5}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Cauliflower, boiled* (without salt) {1.5}; UNKNOWN; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1467,7 +1479,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>UNKNOWN: juice; UNKNOWN: biscuit; UNKNOWN: water</t>
+          <t>Orange juice, raw (unsweetened) {0.75}; Biscuit, sweet* {0.5}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1485,7 +1497,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>UNKNOWN: biscuit</t>
+          <t>Biscuit, sweet* {1.5}</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1503,7 +1515,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>UNKNOWN: fish curry  water</t>
+          <t>UNKNOWN; Radish, boiled* (without salt) {1.5}; UNKNOWN; Cucumber, peeled, raw {1.5}; Soybean oil {0.15}; UNKNOWN</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1529,7 +1541,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>UNKNOWN: biscuit; UNKNOWN: water</t>
+          <t>Biscuit, sweet* {0.5}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -1551,7 +1563,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish curry; UNKNOWN: pulse</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Turmeric, dried {0.1}; Chilli, green, with seeds, raw {3.0}; Soybean oil {0.15}; UNKNOWN; Turmeric, dried {0.1}</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -1573,7 +1585,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>UNKNOWN: pitha</t>
+          <t>UNKNOWN; UNKNOWN; Jaggery, sugarcane, solid {1.5}; Payesh* {1.5}</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -1595,7 +1607,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: fish curry; UNKNOWN: tip vegetables</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Soybean oil {0.15}; UNKNOWN; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; UNKNOWN</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -1625,7 +1637,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: spinach; UNKNOWN: water</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Spinach, boiled* (without salt) {0.6}; Soybean oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -1647,7 +1659,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt); UNKNOWN: chicken curry; UNKNOWN: water</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -1665,7 +1677,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>UNKNOWN: chips; UNKNOWN: juice</t>
+          <t>UNKNOWN; Orange juice, raw (unsweetened) {1.5}</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -1687,7 +1699,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>UNKNOWN: plum</t>
+          <t>Hog plum, raw {2.4}; UNKNOWN; Chilli, red, dry {0.1}</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -1709,7 +1721,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Rice, puffed, salted; UNKNOWN: water</t>
+          <t>Rice, puffed, salted {0.3}; Tomato, red, ripe, boiled* (without salt) {0.3}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>

--- a/Cleaned_Food_Diary.xlsx
+++ b/Cleaned_Food_Diary.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {0.4}; Water, drinking {2.5}</t>
+          <t>Biscuit, sweet* {0.5}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -585,7 +585,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.26}; Potato, Diamond, boiled* (without salt) {0.07}; Onion, raw {0.07}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.33}; Potato, Diamond, boiled* (without salt) {0.09}; Onion, raw {0.09}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -641,7 +641,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UNKNOWN; UNKNOWN; UNKNOWN; Papaya, unripe, boiled* (without salt) {0.2}; UNKNOWN; Soybean oil {0.15}; Onion, raw {0.2}; Garlic, raw {0.2}</t>
+          <t>UNKNOWN; UNKNOWN; UNKNOWN; Papaya, unripe, boiled* (without salt) {0.5}; Green gram, split, boiled* (without salt) {0.5}; Soybean oil {0.15}; Onion, raw {0.5}; Garlic, raw {0.5}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -689,7 +689,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.26}; Onion, raw {0.14}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.33}; Onion, raw {0.17}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -737,10 +737,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.5}; Onion, raw {0.3}; Soybean oil {0.15}; UNKNOWN; Watermelon, ripe, raw {0.3}; UNKNOWN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.5}; Onion, raw {0.5}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.5}; Gourd, ash, raw {0.5}; Prawn, Giant tiger prawn, raw {0.5}</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Prawn, Giant tiger prawn, raw</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t xml:space="preserve">Need to figure out whether to use raw gourd and calculate nutrient retention factor, or use other type of veg in place? Need to calculate retention factor for cooked prawn. </t>
@@ -811,7 +815,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {0.39}; Potato, Diamond, boiled* (without salt) {0.21}; Water, drinking {2.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {1.3}; Potato, Diamond, boiled* (without salt) {0.7}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -837,7 +841,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chicken leg, without skin, raw {0.39}; Potato, Diamond, boiled* (without salt) {0.21}; Banana, Sagar, ripe, raw {0.5}; Biscuit, sweet* {0.5}; Orange juice, raw (unsweetened) {3.0}</t>
+          <t>Chicken leg, without skin, raw {1.3}; Potato, Diamond, boiled* (without salt) {0.7}; Banana, Sagar, ripe, raw {0.5}; Biscuit, sweet* {0.5}; Orange juice, raw (unsweetened) {3.0}</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -947,7 +951,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {1.95}; Potato, Diamond, boiled* (without salt) {1.05}; UNKNOWN; Chilli, red, dry {0.1}; UNKNOWN</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {1.95}; Potato, Diamond, boiled* (without salt) {0.53}; Green gram, split, boiled* (without salt) {0.53}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; UNKNOWN</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1017,7 +1021,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.39}; Potato, Diamond, boiled* (without salt) {0.05}; Onion, raw {0.05}; Chilli, red, dry {0.1}; Soybean, dried, raw {0.05}; Soybean oil {0.15}; Cauliflower, boiled* (without salt) {0.05}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.3}; Potato, Diamond, boiled* (without salt) {0.17}; Onion, raw {0.17}; Chilli, red, dry {0.1}; Soybean, dried, raw {0.17}; Soybean oil {0.15}; Cauliflower, boiled* (without salt) {0.17}</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1145,7 +1149,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.26}; Amaranth, leaves, red, boiled* (without salt) {0.14}; Coriander leaves, raw {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.33}; Amaranth, leaves, red, boiled* (without salt) {0.17}; Coriander leaves, raw {0.1}</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1215,7 +1219,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Onion, raw {1.5}; Soybean oil {0.15}; UNKNOWN; Chilli, red, dry {0.1}; Onion, raw {1.5}; UNKNOWN; Orange juice, raw (unsweetened) {5.0}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Onion, raw {0.67}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.67}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Onion, raw {0.67}; UNKNOWN; Orange juice, raw (unsweetened) {5.0}</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1255,7 +1259,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Onion, raw {0.3}; Soybean oil {0.15}; UNKNOWN; Chilli, red, dry {0.1}; Onion, raw {0.3}; UNKNOWN; Water, drinking {5.0}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Onion, raw {1.0}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {1.0}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Onion, raw {1.0}; UNKNOWN; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1325,7 +1329,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; UNKNOWN; Onion, raw {0.6}; Soybean oil {0.15}; Water, drinking {5.0}</t>
+          <t>Bread, bun/roll {1.0}; UNKNOWN; Onion, raw {2.0}; Soybean oil {0.15}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1365,7 +1369,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Tomato, red, ripe, boiled* (without salt) {0.4}; Onion, raw {0.4}; Soybean oil {0.15}; UNKNOWN; Onion, raw {0.4}; Soybean oil {0.15}; UNKNOWN; Water, drinking {2.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Tomato, red, ripe, boiled* (without salt) {1.33}; Onion, raw {1.33}; Soybean oil {0.15}; UNKNOWN; Onion, raw {1.33}; Soybean oil {0.15}; UNKNOWN; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1405,7 +1409,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>UNKNOWN; Onion, raw {0.2}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; UNKNOWN; Soybean oil {0.15}; Onion, raw {0.2}; Tomato, red, ripe, boiled* (without salt) {0.2}; UNKNOWN; Coriander leaves, raw {0.1}; Garlic, raw {0.2}; Soybean oil {0.15}; Rice, BR-28, boiled* (without salt) {1.5}; Water, drinking {1.5}</t>
+          <t>UNKNOWN; Onion, raw {0.17}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; UNKNOWN; Soybean oil {0.15}; Onion, raw {0.17}; Tomato, red, ripe, boiled* (without salt) {0.17}; Green gram, split, boiled* (without salt) {0.17}; Onion, raw {0.17}; Coriander leaves, raw {0.1}; Garlic, raw {0.17}; Soybean oil {0.15}; Rice, BR-28, boiled* (without salt) {1.5}; Water, drinking {1.5}</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1563,7 +1567,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Turmeric, dried {0.1}; Chilli, green, with seeds, raw {3.0}; Soybean oil {0.15}; UNKNOWN; Turmeric, dried {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Turmeric, dried {0.1}; Chilli, green, with seeds, raw {1.5}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {1.5}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -1607,7 +1611,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Soybean oil {0.15}; UNKNOWN; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; UNKNOWN</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {3.0}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; UNKNOWN</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -1637,7 +1641,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Spinach, boiled* (without salt) {0.6}; Soybean oil {0.15}; Water, drinking {2.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Spinach, boiled* (without salt) {2.0}; Soybean oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -1699,7 +1703,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hog plum, raw {2.4}; UNKNOWN; Chilli, red, dry {0.1}</t>
+          <t>Hog plum, raw {3.0}; UNKNOWN; Chilli, red, dry {0.1}</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -1721,7 +1725,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Rice, puffed, salted {0.3}; Tomato, red, ripe, boiled* (without salt) {0.3}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {5.0}</t>
+          <t>Rice, puffed, salted {1.0}; Tomato, red, ripe, boiled* (without salt) {1.0}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>

--- a/Cleaned_Food_Diary.xlsx
+++ b/Cleaned_Food_Diary.xlsx
@@ -477,10 +477,14 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Small fish fry* {1.5}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Small fish fry*</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Rice: Assuming 1 plate = 1 cup cooked rice, or 180 g; Fish filet: Estimate of serving size, and Small Fish fry recipe in food composition table contains other listed ingredients. What to do about salt in dishes, everything is without salt in food composition table?</t>
@@ -503,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UNKNOWN; Onion, raw {1.8}</t>
+          <t>Ruti* {1.0}; Onion, raw {1.8}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -525,7 +529,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.97}; Pangas, without bones, raw {0.97}; Potato, Diamond, boiled* (without salt) {0.53}; Brinjal, purple, long, boiled* (without salt) {0.53}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.53}; Pangas, without bones, raw {0.53}; Potato, Diamond, boiled* (without salt) {0.97}; Brinjal, purple, long, boiled* (without salt) {0.97}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -541,10 +545,22 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>chicken (ootato with bread)</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Chicken leg, without skin, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.97}; Bread, bun/roll {0.97}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chicken leg, without skin, raw</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -585,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.33}; Potato, Diamond, boiled* (without salt) {0.09}; Onion, raw {0.09}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.17}; Potato, Diamond, boiled* (without salt) {0.16}; Onion, raw {0.16}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -607,7 +623,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {1.95}; Potato, Diamond, boiled* (without salt) {0.53}; Onion, raw {0.53}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {1.05}; Potato, Diamond, boiled* (without salt) {0.97}; Onion, raw {0.97}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -641,7 +657,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UNKNOWN; UNKNOWN; UNKNOWN; Papaya, unripe, boiled* (without salt) {0.5}; Green gram, split, boiled* (without salt) {0.5}; Soybean oil {0.15}; Onion, raw {0.5}; Garlic, raw {0.5}</t>
+          <t>UNKNOWN; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.9}; Papaya, unripe, boiled* (without salt) {0.9}; Green gram, split, boiled* (without salt) {0.9}; Soybean oil {0.15}; Onion, raw {0.9}; Garlic, raw {0.9}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -689,7 +705,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.33}; Onion, raw {0.17}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.17}; Onion, raw {0.33}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -737,7 +753,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.5}; Onion, raw {0.5}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.5}; Gourd, ash, raw {0.5}; Prawn, Giant tiger prawn, raw {0.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.5}; Onion, raw {1.12}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {1.12}; Gourd, ash, raw {1.12}; Prawn, Giant tiger prawn, raw {1.12}</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -775,7 +791,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; UNKNOWN; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {1.0}; Egg, chicken, farmed, boiled* (without salt) {0.17}; Tomato, red, ripe, boiled* (without salt) {0.11}; Chilli, green, with seeds, raw {0.11}; Onion, raw {0.11}; Turmeric, dried {0.1}; Soybean oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -815,7 +831,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {1.3}; Potato, Diamond, boiled* (without salt) {0.7}; Water, drinking {2.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {1.57}; Potato, Diamond, boiled* (without salt) {2.92}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -841,7 +857,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chicken leg, without skin, raw {1.3}; Potato, Diamond, boiled* (without salt) {0.7}; Banana, Sagar, ripe, raw {0.5}; Biscuit, sweet* {0.5}; Orange juice, raw (unsweetened) {3.0}</t>
+          <t>Chicken leg, without skin, raw {1.57}; Potato, Diamond, boiled* (without salt) {2.92}; Banana, Sagar, ripe, raw {0.5}; Biscuit, sweet* {0.5}; Orange juice, raw (unsweetened) {3.0}</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -875,7 +891,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; UNKNOWN; Chilli, red, dry {0.1}; Soybean oil {0.15}; Water, drinking {5.0}</t>
+          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {9.0}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -911,7 +927,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {4.0}; Water, drinking {2.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {9.0}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -951,7 +967,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {1.95}; Potato, Diamond, boiled* (without salt) {0.53}; Green gram, split, boiled* (without salt) {0.53}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; UNKNOWN</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.97}; Green gram, split, boiled* (without salt) {0.97}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Salt {0.1}</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -981,7 +997,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; UNKNOWN; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {1.5}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Onion, raw {1.5}; Soybean oil {0.15}; Mustard oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -999,7 +1015,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>UNKNOWN; Emblic, raw {0.5}; Water, drinking {1.5}</t>
+          <t>UNKNOWN; Emblic, raw {0.5}; Water, drinking {1.25}</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1021,7 +1037,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.3}; Potato, Diamond, boiled* (without salt) {0.17}; Onion, raw {0.17}; Chilli, red, dry {0.1}; Soybean, dried, raw {0.17}; Soybean oil {0.15}; Cauliflower, boiled* (without salt) {0.17}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.57}; Potato, Diamond, boiled* (without salt) {0.73}; Onion, raw {0.73}; Chilli, red, dry {0.1}; Soybean, dried, raw {0.73}; Soybean oil {0.15}; Cauliflower, boiled* (without salt) {0.73}</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1097,10 +1113,14 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Water, drinking {2.5}</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.97}; Onion, raw {0.97}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Water, drinking {2.5}</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Pangas, without bones, raw</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1127,7 +1147,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; UNKNOWN; Soybean oil {0.15}; UNKNOWN; Coriander leaves, raw {0.1}; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {1.5}; Tomato, red, ripe, boiled* (without salt) {1.5}; Soybean oil {0.15}; Chilli, green, with seeds, raw {1.5}; Coriander seed, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1149,7 +1169,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.33}; Amaranth, leaves, red, boiled* (without salt) {0.17}; Coriander leaves, raw {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.17}; Amaranth, leaves, red, boiled* (without salt) {0.33}; Coriander leaves, raw {0.1}</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1219,7 +1239,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Onion, raw {0.67}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.67}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Onion, raw {0.67}; UNKNOWN; Orange juice, raw (unsweetened) {5.0}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Potato, Diamond, boiled* (without salt) {0.5}; Chilli, red, dry {0.1}; Onion, raw {0.5}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.5}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Onion, raw {0.5}; Salt {0.1}; Orange juice, raw (unsweetened) {5.0}</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1259,7 +1279,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Onion, raw {1.0}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {1.0}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Onion, raw {1.0}; UNKNOWN; Water, drinking {5.0}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Potato, Diamond, boiled* (without salt) {1.38}; Chilli, red, dry {0.1}; Onion, raw {1.38}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {1.38}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Onion, raw {1.38}; Salt {0.1}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1329,7 +1349,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; UNKNOWN; Onion, raw {2.0}; Soybean oil {0.15}; Water, drinking {5.0}</t>
+          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {2.25}; Onion, raw {2.25}; Soybean oil {0.15}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1369,10 +1389,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Tomato, red, ripe, boiled* (without salt) {1.33}; Onion, raw {1.33}; Soybean oil {0.15}; UNKNOWN; Onion, raw {1.33}; Soybean oil {0.15}; UNKNOWN; Water, drinking {2.5}</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {3.15}; Tomato, red, ripe, boiled* (without salt) {1.17}; Onion, raw {1.17}; Soybean oil {0.15}; Potato, Diamond, boiled* (without salt) {1.17}; Onion, raw {1.17}; Soybean oil {0.15}; Pumpkin leaves, raw {1.17}; Water, drinking {2.5}</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Pangas, without bones, raw</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1387,7 +1411,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>UNKNOWN; UNKNOWN; UNKNOWN; Biscuit, sweet* {0.75}</t>
+          <t>Potato, Diamond, boiled* (without salt) {0.43}; Carrot, boiled* (without salt) {0.43}; Onion, raw {0.43}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.43}; Potato, Diamond, boiled* (without salt) {0.43}; Onion, raw {0.43}; Chilli, green, with seeds, raw {0.43}; Soybean oil {0.15}; UNKNOWN; Biscuit, sweet* {0.75}</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1409,10 +1433,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>UNKNOWN; Onion, raw {0.17}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; UNKNOWN; Soybean oil {0.15}; Onion, raw {0.17}; Tomato, red, ripe, boiled* (without salt) {0.17}; Green gram, split, boiled* (without salt) {0.17}; Onion, raw {0.17}; Coriander leaves, raw {0.1}; Garlic, raw {0.17}; Soybean oil {0.15}; Rice, BR-28, boiled* (without salt) {1.5}; Water, drinking {1.5}</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>Egg, chicken, farmed, boiled* (without salt) {0.17}; Onion, raw {0.11}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; Pangas, without bones, raw {0.17}; Soybean oil {0.15}; Onion, raw {0.11}; Tomato, red, ripe, boiled* (without salt) {0.11}; Green gram, split, boiled* (without salt) {0.11}; Onion, raw {0.11}; Coriander leaves, raw {0.1}; Garlic, raw {0.11}; Soybean oil {0.15}; Rice, BR-28, boiled* (without salt) {1.5}; Water, drinking {1.25}</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Pangas, without bones, raw</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1439,7 +1467,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; UNKNOWN; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {1.0}; Egg, chicken, farmed, boiled* (without salt) {1.57}; Tomato, red, ripe, boiled* (without salt) {0.97}; Chilli, green, with seeds, raw {0.97}; Onion, raw {0.97}; Turmeric, dried {0.1}; Soybean oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1461,10 +1489,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Onion, raw {1.5}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Cauliflower, boiled* (without salt) {1.5}; UNKNOWN; Water, drinking {5.0}</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.65}; Onion, raw {0.65}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Cauliflower, boiled* (without salt) {0.65}; UNKNOWN; Water, drinking {5.0}</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Pangas, without bones, raw</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -1501,7 +1533,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {1.5}</t>
+          <t>Biscuit, sweet* {4.5}</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1519,10 +1551,14 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>UNKNOWN; Radish, boiled* (without salt) {1.5}; UNKNOWN; Cucumber, peeled, raw {1.5}; Soybean oil {0.15}; UNKNOWN</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>Pangas, without bones, raw {1.05}; Tomato, red, ripe, boiled* (without salt) {0.65}; Radish, boiled* (without salt) {0.65}; UNKNOWN; Cucumber, peeled, raw {0.65}; Soybean oil {0.15}; UNKNOWN</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Pangas, without bones, raw</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -1567,10 +1603,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Turmeric, dried {0.1}; Chilli, green, with seeds, raw {1.5}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {1.5}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.65}; Turmeric, dried {0.1}; Chilli, green, with seeds, raw {0.65}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.65}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Pangas, without bones, raw</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -1589,7 +1629,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>UNKNOWN; UNKNOWN; Jaggery, sugarcane, solid {1.5}; Payesh* {1.5}</t>
+          <t>Milk, cow, whole fat (pasteurized, UTH) {0.75}; Rice, BR-28, boiled* (without salt) {0.75}; Jaggery, sugarcane, solid {0.75}; Payesh* {0.75}</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -1611,10 +1651,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {3.0}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; UNKNOWN</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.33}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.33}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Brinjal, purple, long, boiled* (without salt) {0.33}; Potato, Diamond, boiled* (without salt) {0.33}; Radish, boiled* (without salt) {0.33}; Spinach, boiled* (without salt) {0.33}</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Pangas, without bones, raw</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -1641,7 +1685,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Spinach, boiled* (without salt) {2.0}; Soybean oil {0.15}; Water, drinking {2.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Spinach, boiled* (without salt) {4.5}; Soybean oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -1663,10 +1707,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; UNKNOWN; Water, drinking {2.5}</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {1.57}; Onion, raw {1.46}; Garlic, raw {1.46}; Ginger root, raw {0.1}; Chilli, red, dry {0.1}; Water, drinking {2.5}</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Chicken leg, without skin, raw</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -1681,7 +1729,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>UNKNOWN; Orange juice, raw (unsweetened) {1.5}</t>
+          <t>UNKNOWN; Orange juice, raw (unsweetened) {1.25}</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -1703,7 +1751,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hog plum, raw {3.0}; UNKNOWN; Chilli, red, dry {0.1}</t>
+          <t>Hog plum, raw {3.0}; Salt {0.1}; Chilli, red, dry {0.1}</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -1725,7 +1773,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Rice, puffed, salted {1.0}; Tomato, red, ripe, boiled* (without salt) {1.0}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {5.0}</t>
+          <t>Rice, puffed, salted {2.25}; Tomato, red, ripe, boiled* (without salt) {2.25}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>

--- a/Cleaned_Food_Diary.xlsx
+++ b/Cleaned_Food_Diary.xlsx
@@ -545,22 +545,10 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>chicken (ootato with bread)</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Chicken leg, without skin, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.97}; Bread, bun/roll {0.97}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Chicken leg, without skin, raw</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -657,7 +645,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UNKNOWN; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.9}; Papaya, unripe, boiled* (without salt) {0.9}; Green gram, split, boiled* (without salt) {0.9}; Soybean oil {0.15}; Onion, raw {0.9}; Garlic, raw {0.9}</t>
+          <t>UNKNOWN; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.4}; Papaya, unripe, boiled* (without salt) {0.4}; Green gram, split, boiled* (without salt) {0.4}; Soybean oil {0.15}; Onion, raw {0.4}; Garlic, raw {0.4}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -753,7 +741,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.5}; Onion, raw {1.12}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {1.12}; Gourd, ash, raw {1.12}; Prawn, Giant tiger prawn, raw {1.12}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.5}; Onion, raw {0.5}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.5}; Gourd, ash, raw {0.5}; Prawn, Giant tiger prawn, raw {0.5}</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -831,7 +819,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {1.57}; Potato, Diamond, boiled* (without salt) {2.92}; Water, drinking {2.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {0.7}; Potato, Diamond, boiled* (without salt) {1.3}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -857,7 +845,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chicken leg, without skin, raw {1.57}; Potato, Diamond, boiled* (without salt) {2.92}; Banana, Sagar, ripe, raw {0.5}; Biscuit, sweet* {0.5}; Orange juice, raw (unsweetened) {3.0}</t>
+          <t>Chicken leg, without skin, raw {0.7}; Potato, Diamond, boiled* (without salt) {1.3}; Banana, Sagar, ripe, raw {0.5}; Biscuit, sweet* {0.5}; Orange juice, raw (unsweetened) {3.0}</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -891,7 +879,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {9.0}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Water, drinking {5.0}</t>
+          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {4.0}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -927,7 +915,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {9.0}; Water, drinking {2.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {4.0}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1037,7 +1025,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.57}; Potato, Diamond, boiled* (without salt) {0.73}; Onion, raw {0.73}; Chilli, red, dry {0.1}; Soybean, dried, raw {0.73}; Soybean oil {0.15}; Cauliflower, boiled* (without salt) {0.73}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.7}; Potato, Diamond, boiled* (without salt) {0.33}; Onion, raw {0.33}; Chilli, red, dry {0.1}; Soybean, dried, raw {0.33}; Soybean oil {0.15}; Cauliflower, boiled* (without salt) {0.33}</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1147,7 +1135,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {1.5}; Tomato, red, ripe, boiled* (without salt) {1.5}; Soybean oil {0.15}; Chilli, green, with seeds, raw {1.5}; Coriander seed, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {0.67}; Tomato, red, ripe, boiled* (without salt) {0.67}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.67}; Coriander seed, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1279,7 +1267,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Potato, Diamond, boiled* (without salt) {1.38}; Chilli, red, dry {0.1}; Onion, raw {1.38}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {1.38}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Onion, raw {1.38}; Salt {0.1}; Water, drinking {5.0}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Potato, Diamond, boiled* (without salt) {0.75}; Chilli, red, dry {0.1}; Onion, raw {0.75}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.75}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Onion, raw {0.75}; Salt {0.1}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1349,7 +1337,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {2.25}; Onion, raw {2.25}; Soybean oil {0.15}; Water, drinking {5.0}</t>
+          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {1.0}; Onion, raw {1.0}; Soybean oil {0.15}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1389,7 +1377,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {3.15}; Tomato, red, ripe, boiled* (without salt) {1.17}; Onion, raw {1.17}; Soybean oil {0.15}; Potato, Diamond, boiled* (without salt) {1.17}; Onion, raw {1.17}; Soybean oil {0.15}; Pumpkin leaves, raw {1.17}; Water, drinking {2.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.4}; Tomato, red, ripe, boiled* (without salt) {0.52}; Onion, raw {0.52}; Soybean oil {0.15}; Potato, Diamond, boiled* (without salt) {0.52}; Onion, raw {0.52}; Soybean oil {0.15}; Pumpkin leaves, raw {0.52}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1467,7 +1455,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Egg, chicken, farmed, boiled* (without salt) {1.57}; Tomato, red, ripe, boiled* (without salt) {0.97}; Chilli, green, with seeds, raw {0.97}; Onion, raw {0.97}; Turmeric, dried {0.1}; Soybean oil {0.15}; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {1.0}; Egg, chicken, farmed, boiled* (without salt) {0.7}; Tomato, red, ripe, boiled* (without salt) {0.43}; Chilli, green, with seeds, raw {0.43}; Onion, raw {0.43}; Turmeric, dried {0.1}; Soybean oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1533,7 +1521,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {4.5}</t>
+          <t>Biscuit, sweet* {2.0}</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -1545,13 +1533,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fish Curry (tomato, raddish, black chili, cucumber, oil, Cucurbit(2 pcs) Water (1 glass)</t>
+          <t>Fish Curry (tomato, raddish, black chili, cucumber, oil), Cucurbit(2 pcs) Water (1 glass)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw {1.05}; Tomato, red, ripe, boiled* (without salt) {0.65}; Radish, boiled* (without salt) {0.65}; UNKNOWN; Cucumber, peeled, raw {0.65}; Soybean oil {0.15}; UNKNOWN</t>
+          <t>Pangas, without bones, raw {1.05}; Tomato, red, ripe, boiled* (without salt) {0.65}; Radish, boiled* (without salt) {0.65}; Pepper, black {0.1}; Cucumber, peeled, raw {0.65}; Soybean oil {0.15}; UNKNOWN</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1685,7 +1673,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Spinach, boiled* (without salt) {4.5}; Soybean oil {0.15}; Water, drinking {2.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Spinach, boiled* (without salt) {2.0}; Soybean oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -1707,7 +1695,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {1.57}; Onion, raw {1.46}; Garlic, raw {1.46}; Ginger root, raw {0.1}; Chilli, red, dry {0.1}; Water, drinking {2.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Chicken leg, without skin, raw {0.7}; Onion, raw {0.65}; Garlic, raw {0.65}; Ginger root, raw {0.1}; Chilli, red, dry {0.1}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1773,7 +1761,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Rice, puffed, salted {2.25}; Tomato, red, ripe, boiled* (without salt) {2.25}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {5.0}</t>
+          <t>Rice, puffed, salted {1.0}; Tomato, red, ripe, boiled* (without salt) {1.0}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>

--- a/Cleaned_Food_Diary.xlsx
+++ b/Cleaned_Food_Diary.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UNKNOWN; UNKNOWN; Potato, Diamond, boiled* (without salt) {0.4}; Papaya, unripe, boiled* (without salt) {0.4}; Green gram, split, boiled* (without salt) {0.4}; Soybean oil {0.15}; Onion, raw {0.4}; Garlic, raw {0.4}</t>
+          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {0.4}; Papaya, unripe, boiled* (without salt) {0.4}; Green gram, split, boiled* (without salt) {0.4}; Soybean oil {0.15}; Onion, raw {0.4}; Garlic, raw {0.4}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -741,7 +741,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.5}; Onion, raw {0.5}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.5}; Gourd, ash, raw {0.5}; Prawn, Giant tiger prawn, raw {0.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.5}; Onion, raw {0.43}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.43}; Gourd, ash, raw {0.43}; Prawn, Giant tiger prawn, raw {0.7}</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">

--- a/Cleaned_Food_Diary.xlsx
+++ b/Cleaned_Food_Diary.xlsx
@@ -545,10 +545,22 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rice (1 plate), Meat (potato, carrot, condiment), Pulse (half bowi)</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Beef, meat, lean, boneless, raw {1.05}; Potato, Diamond, boiled* (without salt) {0.49}; Carrot, boiled* (without salt) {0.49}; Chilli, green, with seeds, raw {0.49}; Coriander seed, dry {0.1}; Green gram, split, boiled* (without salt) {0.49}; UNKNOWN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Beef, meat, lean, boneless, raw</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1337,10 +1349,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {1.0}; Onion, raw {1.0}; Soybean oil {0.15}; Water, drinking {5.0}</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>Bread, bun/roll {1.0}; Buffalo meat, raw {0.7}; Potato, Diamond, boiled* (without salt) {0.65}; Onion, raw {0.65}; Soybean oil {0.15}; Water, drinking {5.0}</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Buffalo meat, raw</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1377,12 +1393,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.4}; Tomato, red, ripe, boiled* (without salt) {0.52}; Onion, raw {0.52}; Soybean oil {0.15}; Potato, Diamond, boiled* (without salt) {0.52}; Onion, raw {0.52}; Soybean oil {0.15}; Pumpkin leaves, raw {0.52}; Water, drinking {2.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.7}; Tomato, red, ripe, boiled* (without salt) {0.52}; Onion, raw {0.52}; Soybean oil {0.15}; Buffalo meat, raw {0.7}; Potato, Diamond, boiled* (without salt) {0.52}; Onion, raw {0.52}; Soybean oil {0.15}; Pumpkin leaves, raw {0.52}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw</t>
+          <t>Pangas, without bones, raw; Buffalo meat, raw</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>

--- a/Cleaned_Food_Diary.xlsx
+++ b/Cleaned_Food_Diary.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ruti* {1.0}; Onion, raw {1.8}</t>
+          <t>Ruti* {10.0}; Onion, raw {1.8}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {0.5}; Water, drinking {2.5}</t>
+          <t>Biscuit, sweet* {5.0}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -601,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.17}; Potato, Diamond, boiled* (without salt) {0.16}; Onion, raw {0.16}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {1.75}; Potato, Diamond, boiled* (without salt) {1.62}; Onion, raw {1.62}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -657,7 +657,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {0.4}; Papaya, unripe, boiled* (without salt) {0.4}; Green gram, split, boiled* (without salt) {0.4}; Soybean oil {0.15}; Onion, raw {0.4}; Garlic, raw {0.4}</t>
+          <t>Bread, bun/roll {5.0}; Potato, Diamond, boiled* (without salt) {0.4}; Papaya, unripe, boiled* (without salt) {0.4}; Green gram, split, boiled* (without salt) {0.4}; Soybean oil {0.15}; Onion, raw {0.4}; Garlic, raw {0.4}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.17}; Onion, raw {0.33}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {1.75}; Onion, raw {3.25}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.5}; Onion, raw {0.43}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.43}; Gourd, ash, raw {0.43}; Prawn, Giant tiger prawn, raw {0.7}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {5.0}; Onion, raw {0.43}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.43}; Gourd, ash, raw {0.43}; Prawn, Giant tiger prawn, raw {0.7}</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Egg, chicken, farmed, boiled* (without salt) {0.17}; Tomato, red, ripe, boiled* (without salt) {0.11}; Chilli, green, with seeds, raw {0.11}; Onion, raw {0.11}; Turmeric, dried {0.1}; Soybean oil {0.15}; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {10.0}; Egg, chicken, farmed, boiled* (without salt) {1.75}; Tomato, red, ripe, boiled* (without salt) {1.08}; Chilli, green, with seeds, raw {1.08}; Onion, raw {1.08}; Turmeric, dried {0.1}; Soybean oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -809,7 +809,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {1.0}</t>
+          <t>Biscuit, sweet* {10.0}</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -857,7 +857,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chicken leg, without skin, raw {0.7}; Potato, Diamond, boiled* (without salt) {1.3}; Banana, Sagar, ripe, raw {0.5}; Biscuit, sweet* {0.5}; Orange juice, raw (unsweetened) {3.0}</t>
+          <t>Chicken leg, without skin, raw {0.7}; Potato, Diamond, boiled* (without salt) {1.3}; Banana, Sagar, ripe, raw {5.0}; Biscuit, sweet* {5.0}; Orange juice, raw (unsweetened) {3.0}</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {4.0}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Water, drinking {5.0}</t>
+          <t>Bread, bun/roll {10.0}; Potato, Diamond, boiled* (without salt) {4.0}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -909,7 +909,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {0.5}; Water, drinking {2.5}</t>
+          <t>Biscuit, sweet* {5.0}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -949,7 +949,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tea infusion (with sugar and milk powder, whole fat) {2.0}; Biscuit, sweet* {1.0}</t>
+          <t>Tea infusion (with sugar and milk powder, whole fat) {2.0}; Biscuit, sweet* {10.0}</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -997,7 +997,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {1.5}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Onion, raw {1.5}; Soybean oil {0.15}; Mustard oil {0.15}; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {10.0}; Potato, Diamond, boiled* (without salt) {1.5}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Onion, raw {1.5}; Soybean oil {0.15}; Mustard oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>UNKNOWN; Emblic, raw {0.5}; Water, drinking {1.25}</t>
+          <t>UNKNOWN; Emblic, raw {5.0}; Water, drinking {1.25}</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1077,7 +1077,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Emblic, raw {0.5}; Banana, Sagar, ripe, raw {0.5}; Water, drinking {2.5}</t>
+          <t>Emblic, raw {5.0}; Banana, Sagar, ripe, raw {5.0}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>UNKNOWN; Biscuit, sweet* {2.0}; Emblic, raw {0.5}; Orange, raw {1.0}</t>
+          <t>UNKNOWN; Biscuit, sweet* {20.0}; Emblic, raw {5.0}; Orange, raw {10.0}</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {0.67}; Tomato, red, ripe, boiled* (without salt) {0.67}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.67}; Coriander seed, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {10.0}; Potato, Diamond, boiled* (without salt) {0.67}; Tomato, red, ripe, boiled* (without salt) {0.67}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.67}; Coriander seed, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.17}; Amaranth, leaves, red, boiled* (without salt) {0.33}; Coriander leaves, raw {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.75}; Amaranth, leaves, red, boiled* (without salt) {3.25}; Coriander leaves, raw {0.1}</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1191,7 +1191,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jaggery, sugarcane, solid {0.5}</t>
+          <t>Jaggery, sugarcane, solid {5.0}</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1209,7 +1209,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {1.0}; Jaggery, sugarcane, solid {0.5}; UNKNOWN; Water, drinking {2.5}</t>
+          <t>Biscuit, sweet* {10.0}; Jaggery, sugarcane, solid {5.0}; UNKNOWN; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1239,10 +1239,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Potato, Diamond, boiled* (without salt) {0.5}; Chilli, red, dry {0.1}; Onion, raw {0.5}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.5}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Onion, raw {0.5}; Salt {0.1}; Orange juice, raw (unsweetened) {5.0}</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Beef, meat, lean, boneless, raw {0.7}; Chilli, red, dry {0.1}; Onion, raw {0.43}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.43}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Onion, raw {0.43}; Salt {0.1}; Orange juice, raw (unsweetened) {5.0}</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Beef, meat, lean, boneless, raw</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1279,10 +1283,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Potato, Diamond, boiled* (without salt) {0.75}; Chilli, red, dry {0.1}; Onion, raw {0.75}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.75}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Onion, raw {0.75}; Salt {0.1}; Water, drinking {5.0}</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Beef, meat, lean, boneless, raw {1.05}; Chilli, red, dry {0.1}; Onion, raw {0.65}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.65}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Onion, raw {0.65}; Salt {0.1}; Water, drinking {5.0}</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Beef, meat, lean, boneless, raw</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1315,7 +1323,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Chicken leg, without skin, raw {1.0}</t>
+          <t>Bread, bun/roll {10.0}; Chicken leg, without skin, raw {10.0}</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1349,14 +1357,10 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Buffalo meat, raw {0.7}; Potato, Diamond, boiled* (without salt) {0.65}; Onion, raw {0.65}; Soybean oil {0.15}; Water, drinking {5.0}</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Buffalo meat, raw</t>
-        </is>
-      </c>
+          <t>Bread, bun/roll {10.0}; Potato, Diamond, boiled* (without salt) {1.0}; Onion, raw {1.0}; Soybean oil {0.15}; Water, drinking {5.0}</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1371,7 +1375,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>UNKNOWN; Biscuit, sweet* {0.5}; Banana, Sagar, ripe, raw {0.5}; Papaya, unripe, boiled* (without salt) {0.5}; Water, drinking {2.5}</t>
+          <t>UNKNOWN; Biscuit, sweet* {5.0}; Banana, Sagar, ripe, raw {5.0}; Papaya, unripe, boiled* (without salt) {5.0}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1393,12 +1397,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.7}; Tomato, red, ripe, boiled* (without salt) {0.52}; Onion, raw {0.52}; Soybean oil {0.15}; Buffalo meat, raw {0.7}; Potato, Diamond, boiled* (without salt) {0.52}; Onion, raw {0.52}; Soybean oil {0.15}; Pumpkin leaves, raw {0.52}; Water, drinking {2.5}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.4}; Tomato, red, ripe, boiled* (without salt) {0.52}; Onion, raw {0.52}; Soybean oil {0.15}; Potato, Diamond, boiled* (without salt) {0.52}; Onion, raw {0.52}; Soybean oil {0.15}; Pumpkin leaves, raw {0.52}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Pangas, without bones, raw; Buffalo meat, raw</t>
+          <t>Pangas, without bones, raw</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -1437,7 +1441,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Egg, chicken, farmed, boiled* (without salt) {0.17}; Onion, raw {0.11}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; Pangas, without bones, raw {0.17}; Soybean oil {0.15}; Onion, raw {0.11}; Tomato, red, ripe, boiled* (without salt) {0.11}; Green gram, split, boiled* (without salt) {0.11}; Onion, raw {0.11}; Coriander leaves, raw {0.1}; Garlic, raw {0.11}; Soybean oil {0.15}; Rice, BR-28, boiled* (without salt) {1.5}; Water, drinking {1.25}</t>
+          <t>Egg, chicken, farmed, boiled* (without salt) {1.75}; Onion, raw {1.08}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; Pangas, without bones, raw {1.75}; Soybean oil {0.15}; Onion, raw {1.08}; Tomato, red, ripe, boiled* (without salt) {1.08}; Green gram, split, boiled* (without salt) {1.08}; Onion, raw {1.08}; Coriander leaves, raw {0.1}; Garlic, raw {1.08}; Soybean oil {0.15}; Rice, BR-28, boiled* (without salt) {1.5}; Water, drinking {1.25}</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1471,7 +1475,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {1.0}; Egg, chicken, farmed, boiled* (without salt) {0.7}; Tomato, red, ripe, boiled* (without salt) {0.43}; Chilli, green, with seeds, raw {0.43}; Onion, raw {0.43}; Turmeric, dried {0.1}; Soybean oil {0.15}; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {10.0}; Egg, chicken, farmed, boiled* (without salt) {0.7}; Tomato, red, ripe, boiled* (without salt) {0.43}; Chilli, green, with seeds, raw {0.43}; Onion, raw {0.43}; Turmeric, dried {0.1}; Soybean oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1519,7 +1523,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Orange juice, raw (unsweetened) {0.75}; Biscuit, sweet* {0.5}; Water, drinking {2.5}</t>
+          <t>Orange juice, raw (unsweetened) {0.75}; Biscuit, sweet* {5.0}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1585,7 +1589,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {0.5}; Water, drinking {5.0}</t>
+          <t>Biscuit, sweet* {5.0}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -1755,7 +1759,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hog plum, raw {3.0}; Salt {0.1}; Chilli, red, dry {0.1}</t>
+          <t>Hog plum, raw {30.0}; Salt {0.1}; Chilli, red, dry {0.1}</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>

--- a/Cleaned_Food_Diary.xlsx
+++ b/Cleaned_Food_Diary.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ruti* {10.0}; Onion, raw {1.8}</t>
+          <t>Ruti* {1.0}; Onion, raw {1.8}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {5.0}; Water, drinking {2.5}</t>
+          <t>Biscuit, sweet* {0.5}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -601,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {1.75}; Potato, Diamond, boiled* (without salt) {1.62}; Onion, raw {1.62}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.17}; Potato, Diamond, boiled* (without salt) {0.16}; Onion, raw {0.16}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -657,7 +657,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {5.0}; Potato, Diamond, boiled* (without salt) {0.4}; Papaya, unripe, boiled* (without salt) {0.4}; Green gram, split, boiled* (without salt) {0.4}; Soybean oil {0.15}; Onion, raw {0.4}; Garlic, raw {0.4}</t>
+          <t>Bread, bun/roll {0.5}; Potato, Diamond, boiled* (without salt) {0.4}; Papaya, unripe, boiled* (without salt) {0.4}; Green gram, split, boiled* (without salt) {0.4}; Soybean oil {0.15}; Onion, raw {0.4}; Garlic, raw {0.4}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {1.75}; Onion, raw {3.25}; Soybean oil {0.15}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.17}; Onion, raw {0.33}; Soybean oil {0.15}</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {5.0}; Onion, raw {0.43}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.43}; Gourd, ash, raw {0.43}; Prawn, Giant tiger prawn, raw {0.7}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Egg, chicken, farmed, boiled* (without salt) {0.5}; Onion, raw {0.43}; Soybean oil {0.15}; Green gram, split, boiled* (without salt) {0.43}; Gourd, ash, raw {0.43}; Prawn, Giant tiger prawn, raw {0.7}</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {10.0}; Egg, chicken, farmed, boiled* (without salt) {1.75}; Tomato, red, ripe, boiled* (without salt) {1.08}; Chilli, green, with seeds, raw {1.08}; Onion, raw {1.08}; Turmeric, dried {0.1}; Soybean oil {0.15}; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {1.0}; Egg, chicken, farmed, boiled* (without salt) {0.17}; Tomato, red, ripe, boiled* (without salt) {0.11}; Chilli, green, with seeds, raw {0.11}; Onion, raw {0.11}; Turmeric, dried {0.1}; Soybean oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -809,7 +809,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {10.0}</t>
+          <t>Biscuit, sweet* {1.0}</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -857,7 +857,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chicken leg, without skin, raw {0.7}; Potato, Diamond, boiled* (without salt) {1.3}; Banana, Sagar, ripe, raw {5.0}; Biscuit, sweet* {5.0}; Orange juice, raw (unsweetened) {3.0}</t>
+          <t>Chicken leg, without skin, raw {0.7}; Potato, Diamond, boiled* (without salt) {1.3}; Banana, Sagar, ripe, raw {0.5}; Biscuit, sweet* {0.5}; Orange juice, raw (unsweetened) {3.0}</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {10.0}; Potato, Diamond, boiled* (without salt) {4.0}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Water, drinking {5.0}</t>
+          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {4.0}; Turmeric, dried {0.1}; Chilli, red, dry {0.1}; Soybean oil {0.15}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -909,7 +909,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {5.0}; Water, drinking {2.5}</t>
+          <t>Biscuit, sweet* {0.5}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -949,7 +949,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tea infusion (with sugar and milk powder, whole fat) {2.0}; Biscuit, sweet* {10.0}</t>
+          <t>Tea infusion (with sugar and milk powder, whole fat) {2.0}; Biscuit, sweet* {1.0}</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -997,7 +997,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {10.0}; Potato, Diamond, boiled* (without salt) {1.5}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Onion, raw {1.5}; Soybean oil {0.15}; Mustard oil {0.15}; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {1.5}; Chilli, red, dry {0.1}; Turmeric, dried {0.1}; Onion, raw {1.5}; Soybean oil {0.15}; Mustard oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>UNKNOWN; Emblic, raw {5.0}; Water, drinking {1.25}</t>
+          <t>UNKNOWN; Emblic, raw {0.5}; Water, drinking {1.25}</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1077,7 +1077,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Emblic, raw {5.0}; Banana, Sagar, ripe, raw {5.0}; Water, drinking {2.5}</t>
+          <t>Emblic, raw {0.5}; Banana, Sagar, ripe, raw {0.5}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>UNKNOWN; Biscuit, sweet* {20.0}; Emblic, raw {5.0}; Orange, raw {10.0}</t>
+          <t>UNKNOWN; Biscuit, sweet* {2.0}; Emblic, raw {0.5}; Orange, raw {1.0}</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {10.0}; Potato, Diamond, boiled* (without salt) {0.67}; Tomato, red, ripe, boiled* (without salt) {0.67}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.67}; Coriander seed, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {0.67}; Tomato, red, ripe, boiled* (without salt) {0.67}; Soybean oil {0.15}; Chilli, green, with seeds, raw {0.67}; Coriander seed, dry {0.1}; Coriander leaves, raw {0.1}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {1.75}; Amaranth, leaves, red, boiled* (without salt) {3.25}; Coriander leaves, raw {0.1}</t>
+          <t>Rice, BR-28, boiled* (without salt) {3.0}; Pangas, without bones, raw {0.17}; Amaranth, leaves, red, boiled* (without salt) {0.33}; Coriander leaves, raw {0.1}</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1191,7 +1191,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jaggery, sugarcane, solid {5.0}</t>
+          <t>Jaggery, sugarcane, solid {0.5}</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1209,7 +1209,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {10.0}; Jaggery, sugarcane, solid {5.0}; UNKNOWN; Water, drinking {2.5}</t>
+          <t>Biscuit, sweet* {1.0}; Jaggery, sugarcane, solid {0.5}; UNKNOWN; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1323,7 +1323,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {10.0}; Chicken leg, without skin, raw {10.0}</t>
+          <t>Bread, bun/roll {1.0}; Chicken leg, without skin, raw {1.0}</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {10.0}; Potato, Diamond, boiled* (without salt) {1.0}; Onion, raw {1.0}; Soybean oil {0.15}; Water, drinking {5.0}</t>
+          <t>Bread, bun/roll {1.0}; Potato, Diamond, boiled* (without salt) {1.0}; Onion, raw {1.0}; Soybean oil {0.15}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>UNKNOWN; Biscuit, sweet* {5.0}; Banana, Sagar, ripe, raw {5.0}; Papaya, unripe, boiled* (without salt) {5.0}; Water, drinking {2.5}</t>
+          <t>UNKNOWN; Biscuit, sweet* {0.5}; Banana, Sagar, ripe, raw {0.5}; Papaya, unripe, boiled* (without salt) {0.5}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Egg, chicken, farmed, boiled* (without salt) {1.75}; Onion, raw {1.08}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; Pangas, without bones, raw {1.75}; Soybean oil {0.15}; Onion, raw {1.08}; Tomato, red, ripe, boiled* (without salt) {1.08}; Green gram, split, boiled* (without salt) {1.08}; Onion, raw {1.08}; Coriander leaves, raw {0.1}; Garlic, raw {1.08}; Soybean oil {0.15}; Rice, BR-28, boiled* (without salt) {1.5}; Water, drinking {1.25}</t>
+          <t>Egg, chicken, farmed, boiled* (without salt) {0.17}; Onion, raw {0.11}; Chilli, red, dry {0.1}; Coriander leaves, raw {0.1}; Pangas, without bones, raw {0.17}; Soybean oil {0.15}; Onion, raw {0.11}; Tomato, red, ripe, boiled* (without salt) {0.11}; Green gram, split, boiled* (without salt) {0.11}; Onion, raw {0.11}; Coriander leaves, raw {0.1}; Garlic, raw {0.11}; Soybean oil {0.15}; Rice, BR-28, boiled* (without salt) {1.5}; Water, drinking {1.25}</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bread, bun/roll {10.0}; Egg, chicken, farmed, boiled* (without salt) {0.7}; Tomato, red, ripe, boiled* (without salt) {0.43}; Chilli, green, with seeds, raw {0.43}; Onion, raw {0.43}; Turmeric, dried {0.1}; Soybean oil {0.15}; Water, drinking {2.5}</t>
+          <t>Bread, bun/roll {1.0}; Egg, chicken, farmed, boiled* (without salt) {0.7}; Tomato, red, ripe, boiled* (without salt) {0.43}; Chilli, green, with seeds, raw {0.43}; Onion, raw {0.43}; Turmeric, dried {0.1}; Soybean oil {0.15}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Orange juice, raw (unsweetened) {0.75}; Biscuit, sweet* {5.0}; Water, drinking {2.5}</t>
+          <t>Orange juice, raw (unsweetened) {0.75}; Biscuit, sweet* {0.5}; Water, drinking {2.5}</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Biscuit, sweet* {5.0}; Water, drinking {5.0}</t>
+          <t>Biscuit, sweet* {0.5}; Water, drinking {5.0}</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hog plum, raw {30.0}; Salt {0.1}; Chilli, red, dry {0.1}</t>
+          <t>Hog plum, raw {3.0}; Salt {0.1}; Chilli, red, dry {0.1}</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
